--- a/InputFiles/ICDC/TC09_ICDC_MGT01_NeuteredStatus-Yes.xlsx
+++ b/InputFiles/ICDC/TC09_ICDC_MGT01_NeuteredStatus-Yes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/ICDC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106C9119-4CA2-7A45-B297-A368A9E2C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479A559E-960A-6644-9274-95A171B3BF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47360" yWindow="-4940" windowWidth="42480" windowHeight="27840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="34320" yWindow="-880" windowWidth="42480" windowHeight="27840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>SELECT
     COUNT(DISTINCT p.program_acronym) AS "Programs",
     COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_id) AS "Cases",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
     COUNT(DISTINCT smp.sample_id) AS "Samples",
     COUNT(DISTINCT cf.file_name) AS "Case Files",         
     COUNT(DISTINCT sf.file_name) AS "Study Files" 
@@ -80,15 +80,13 @@
 JOIN 
     df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
-JOIN 
-    df_sample smp ON smp."case.case_id" = c.case_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -98,7 +96,7 @@
   </si>
   <si>
     <t>SELECT
-    DISTINCT c.case_id AS "Case ID",
+    DISTINCT c.case_record_id AS "Case ID",
     st.clinical_study_designation AS "Study Code",
     st.clinical_study_type AS "Study Type",
     dmg.breed AS "Breed",
@@ -124,19 +122,17 @@
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_sample smp ON smp."case.case_id" = c.case_id
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -144,15 +140,15 @@
 LEFT JOIN
     df_cohort coh ON coh."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-     st.clinical_study_designation = 'MGT01' AND dmg.neutered_indicator = 'Yes'
+    st.clinical_study_designation = 'MGT01' AND dmg.neutered_indicator = 'Yes'
 ORDER BY 
-    c.case_id ASC
+    c.case_record_id ASC
 LIMIT 100;</t>
   </si>
   <si>
     <t>SELECT DISTINCT
     smp.sample_id AS "Sample ID",
-    c.case_id AS "Case ID",
+    c.case_record_id AS "Case ID",
     COALESCE(dmg.breed, '') AS "Breed",
     COALESCE(diag.disease_term, '') AS "Diagnosis",
     COALESCE(smp.sample_site, '') AS "Sample Site",
@@ -166,21 +162,19 @@
 FROM 
     df_sample smp
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -192,8 +186,8 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    cf.file_name AS "File Name",
+    <t>SELECT 
+    DISTINCT cf.file_name AS "File Name",
     CASE
         WHEN cf.file_name LIKE '%.bai' THEN 'bai'
         WHEN cf.file_name LIKE '%.bam' THEN 'bam'
@@ -239,7 +233,7 @@
     'sample' AS "Association",
     cf.file_description AS "Description",
     smp.sample_id AS "Sample ID",
-    c.case_id AS "Case ID",
+    c.case_record_id AS "Case ID",
     dmg.breed AS "Breed",
     diag.disease_term AS "Diagnosis"
 FROM 
@@ -247,27 +241,25 @@
 JOIN 
     df_sample smp ON cf."sample.sample_id" = smp.sample_id
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
     st.clinical_study_designation = 'MGT01' AND dmg.neutered_indicator = 'Yes'
 ORDER BY 
-    sf.file_name ASC
+    cf.file_name ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -292,14 +284,14 @@
         ELSE 'Unknown'
     END AS "Format",
     CASE     
-        WHEN sf.original_file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(sf.original_file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN sf.original_file_size &gt;= 1024 * 1024 THEN 
-            ROUND(sf.original_file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN sf.original_file_size &gt;= 1024 THEN 
-            ROUND(sf.original_file_size / 1024.0, 2) || ' KB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+        WHEN sf.file_size &gt;= 1024 THEN 
+            ROUND(sf.file_size / 1024.0, 2) || ' KB' 
         ELSE 
-            ROUND(sf.original_file_size, 2) || ' Bytes' 
+            ROUND(sf.file_size, 2) || ' Bytes' 
     END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
@@ -307,21 +299,19 @@
 JOIN 
     df_sample smp ON cf."sample.sample_id" = smp.sample_id
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
@@ -721,7 +711,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
